--- a/266-ter_MAJ_AnnexeNomenclaturesCNSA/ig/StructureDefinition-sdo-task.xlsx
+++ b/266-ter_MAJ_AnnexeNomenclaturesCNSA/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T14:19:11+00:00</t>
+    <t>2025-01-30T14:20:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
